--- a/readme/WiringDiagram.xlsx
+++ b/readme/WiringDiagram.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pi\src\UltimatePiClock\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DC0306-C1A7-47F9-AB01-C13A49F3B428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23025" yWindow="2070" windowWidth="20340" windowHeight="14565" xr2:uid="{5B5A548B-1E25-4052-909E-765B67E2A8C9}"/>
+    <workbookView xWindow="-23025" yWindow="2070" windowWidth="20340" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t xml:space="preserve">BCM </t>
   </si>
@@ -148,12 +147,15 @@
   </si>
   <si>
     <t>WPi</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -366,63 +368,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -638,32 +598,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -753,13 +687,74 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,22 +774,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,12 +795,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,85 +831,106 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,21 +939,19 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1276,11 +1272,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E27D12-3647-4886-A042-51E674BD5053}">
-  <dimension ref="B2:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J13"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,289 +1293,293 @@
     <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
+        <v>17</v>
+      </c>
+      <c r="G4" s="25">
+        <v>8</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17">
+      <c r="E5" s="61"/>
+      <c r="F5" s="60">
+        <v>9</v>
+      </c>
+      <c r="G5" s="62">
+        <v>7</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="65">
+        <v>7</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13">
+        <v>19</v>
+      </c>
+      <c r="G6" s="26">
         <v>6</v>
       </c>
-      <c r="G4" s="31">
-        <v>7</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4">
-        <v>7</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="32">
-        <v>8</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
-        <v>12</v>
-      </c>
-      <c r="F6" s="17">
-        <v>19</v>
-      </c>
-      <c r="G6" s="33">
-        <v>6</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="5">
         <v>6</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="20" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="15">
         <v>13</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>21</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
+      <c r="N7" s="66"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="20" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="15">
         <v>14</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>23</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>5</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="5">
         <v>5</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="22" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>10</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="18">
         <v>24</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="25" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="20">
         <v>21</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <v>29</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>4</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="5">
         <v>4</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="20" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="15">
         <v>22</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>31</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>3</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="54"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="29" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="22">
         <v>23</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="24">
         <v>33</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>2</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62">
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46">
         <v>1</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="48">
         <v>1</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="49" t="s">
         <v>12</v>
       </c>
     </row>

--- a/readme/WiringDiagram.xlsx
+++ b/readme/WiringDiagram.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pi\src\UltimatePiClock\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504DFCAA-4D6F-4D4A-A03F-D9A794724D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23025" yWindow="2070" windowWidth="20340" windowHeight="14565"/>
+    <workbookView xWindow="-22110" yWindow="2010" windowWidth="35610" windowHeight="17550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -116,33 +111,12 @@
     <t>nc</t>
   </si>
   <si>
-    <t>w-org</t>
-  </si>
-  <si>
     <t>w-blu</t>
   </si>
   <si>
-    <t>w-brn</t>
-  </si>
-  <si>
-    <t>w-grn</t>
-  </si>
-  <si>
     <t>Brigtness</t>
   </si>
   <si>
-    <t xml:space="preserve">  blu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  brn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  grn</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -150,13 +124,34 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>w-brown</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>w-orange</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>w-green</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,10 +190,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -780,12 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,40 +886,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,16 +913,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1272,11 +1276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,298 +1292,300 @@
     <col min="5" max="5" width="4.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="33" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
         <v>17</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="23">
         <v>8</v>
       </c>
-      <c r="H4" s="64" t="s">
-        <v>34</v>
+      <c r="H4" s="61" t="s">
+        <v>33</v>
       </c>
       <c r="I4" s="4">
         <v>8</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60">
-        <v>9</v>
-      </c>
-      <c r="G5" s="62">
+      <c r="E5" s="50"/>
+      <c r="F5" s="49">
+        <v>25</v>
+      </c>
+      <c r="G5" s="51">
         <v>7</v>
       </c>
-      <c r="H5" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="65">
+      <c r="H5" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="52">
         <v>7</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>12</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>19</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>6</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>28</v>
+      <c r="H6" s="63" t="s">
+        <v>35</v>
       </c>
       <c r="I6" s="5">
         <v>6</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>13</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>21</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="66"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>14</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>23</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>5</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>29</v>
+      <c r="H8" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="I8" s="5">
         <v>5</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>10</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>24</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>21</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>29</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>4</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>35</v>
+      <c r="H10" s="63" t="s">
+        <v>36</v>
       </c>
       <c r="I10" s="5">
         <v>4</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>22</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>31</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="24">
         <v>3</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>30</v>
+      <c r="H11" s="63" t="s">
+        <v>37</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>23</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>33</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="24">
         <v>2</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>36</v>
+      <c r="H12" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46">
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="66">
+        <v>39</v>
+      </c>
+      <c r="G13" s="43">
         <v>1</v>
       </c>
-      <c r="H13" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="48">
+      <c r="H13" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="44">
         <v>1</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="45" t="s">
         <v>12</v>
       </c>
     </row>
